--- a/out/CE/FigA_23.xlsx
+++ b/out/CE/FigA_23.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E1E807-0409-420C-BCCA-375242B53DA6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="B1">
+        <v>0.87205999999999995</v>
+      </c>
+      <c r="C1">
+        <v>0.84038000000000002</v>
+      </c>
+      <c r="D1">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="E1">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.87134</v>
+      </c>
+      <c r="G1">
+        <v>0.85355999999999999</v>
+      </c>
+      <c r="H1">
+        <v>0.85082000000000002</v>
+      </c>
+      <c r="I1">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.85331999999999997</v>
+      </c>
+      <c r="L1">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.85124</v>
+      </c>
+      <c r="N1">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="O1">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.86763999999999997</v>
+      </c>
+      <c r="Q1">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="S1">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="T1">
+        <v>0.84577999999999998</v>
+      </c>
+      <c r="U1">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="W1">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="X1">
+        <v>0.84984000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.84323999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.84392</v>
+      </c>
+      <c r="AB1">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="AC1">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="AD1">
+        <v>0.83006000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.84574000000000005</v>
+      </c>
+      <c r="AF1">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>0.82394000000000001</v>
+      </c>
+      <c r="AH1">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="AI1">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="AJ1">
+        <v>0.84062000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.87661999999999995</v>
+      </c>
+      <c r="AL1">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.87756000000000001</v>
+      </c>
+      <c r="AN1">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="AP1">
+        <v>0.87431999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>0.85436000000000001</v>
+      </c>
+      <c r="AR1">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AS1">
+        <v>0.85968</v>
+      </c>
+      <c r="AT1">
+        <v>0.85738000000000003</v>
+      </c>
+      <c r="AU1">
+        <v>0.83853999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="AW1">
+        <v>0.86724000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="AY1">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="AZ1">
+        <v>0.86338000000000004</v>
+      </c>
+      <c r="BA1">
+        <v>0.82374000000000003</v>
+      </c>
+      <c r="BB1">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="BC1">
+        <v>0.85074000000000005</v>
+      </c>
+      <c r="BD1">
+        <v>0.85333999999999999</v>
+      </c>
+      <c r="BE1">
+        <v>0.86014000000000002</v>
+      </c>
+      <c r="BF1">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="BG1">
+        <v>0.85407999999999995</v>
+      </c>
+      <c r="BH1">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="BI1">
+        <v>0.83984000000000003</v>
+      </c>
+      <c r="BJ1">
+        <v>0.82872000000000001</v>
+      </c>
+      <c r="BK1">
+        <v>0.85528000000000004</v>
+      </c>
+      <c r="BL1">
+        <v>0.85004000000000002</v>
+      </c>
+      <c r="BM1">
+        <v>0.84438000000000002</v>
+      </c>
+      <c r="BN1">
+        <v>0.83538000000000001</v>
+      </c>
+      <c r="BO1">
+        <v>0.85582000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.83748</v>
+      </c>
+      <c r="BQ1">
+        <v>0.83108000000000004</v>
+      </c>
+      <c r="BR1">
+        <v>0.83152000000000004</v>
+      </c>
+      <c r="BS1">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="BT1">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.82567999999999997</v>
+      </c>
+      <c r="BV1">
+        <v>0.83004</v>
+      </c>
+      <c r="BW1">
+        <v>0.82477999999999996</v>
+      </c>
+      <c r="BX1">
+        <v>0.86124000000000001</v>
+      </c>
+      <c r="BY1">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="CA1">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="CB1">
+        <v>0.84758</v>
+      </c>
+      <c r="CC1">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="CD1">
+        <v>0.85124</v>
+      </c>
+      <c r="CE1">
+        <v>0.83331999999999995</v>
+      </c>
+      <c r="CF1">
+        <v>0.84577999999999998</v>
+      </c>
+      <c r="CG1">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.87753999999999999</v>
+      </c>
+      <c r="CI1">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="CJ1">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="CK1">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="CL1">
+        <v>0.83977999999999997</v>
+      </c>
+      <c r="CM1">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="CN1">
+        <v>0.82343999999999995</v>
+      </c>
+      <c r="CO1">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.83887999999999996</v>
+      </c>
+      <c r="CQ1">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="CR1">
+        <v>0.84804000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.83257999999999999</v>
+      </c>
+      <c r="CT1">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="CU1">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="CV1">
+        <v>0.85382000000000002</v>
+      </c>
+      <c r="CW1">
+        <v>0.85046599999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="B2">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.86043999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.84865999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.84836</v>
+      </c>
+      <c r="H2">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.82904</v>
+      </c>
+      <c r="J2">
+        <v>0.83213999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.86226000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.86038000000000003</v>
+      </c>
+      <c r="N2">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.85826000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.86068</v>
+      </c>
+      <c r="R2">
+        <v>0.83755999999999997</v>
+      </c>
+      <c r="S2">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.86995999999999996</v>
+      </c>
+      <c r="V2">
+        <v>0.84841999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.85024</v>
+      </c>
+      <c r="X2">
+        <v>0.83953999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="AA2">
+        <v>0.87341999999999997</v>
+      </c>
+      <c r="AB2">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.8488</v>
+      </c>
+      <c r="AF2">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.85226000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.82387999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.86651999999999996</v>
+      </c>
+      <c r="AK2">
+        <v>0.82638</v>
+      </c>
+      <c r="AL2">
+        <v>0.86158000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>0.86761999999999995</v>
+      </c>
+      <c r="AO2">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="AP2">
+        <v>0.83064000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.83721999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.86882000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0.85346</v>
+      </c>
+      <c r="AV2">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.85062000000000004</v>
+      </c>
+      <c r="AX2">
+        <v>0.82242000000000004</v>
+      </c>
+      <c r="AY2">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="AZ2">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>0.85882000000000003</v>
+      </c>
+      <c r="BC2">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>0.85514000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.83521999999999996</v>
+      </c>
+      <c r="BF2">
+        <v>0.86151999999999995</v>
+      </c>
+      <c r="BG2">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="BH2">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="BJ2">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="BM2">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.85185999999999995</v>
+      </c>
+      <c r="BO2">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="BP2">
+        <v>0.86294000000000004</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.87426000000000004</v>
+      </c>
+      <c r="BS2">
+        <v>0.86561999999999995</v>
+      </c>
+      <c r="BT2">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="BU2">
+        <v>0.87134</v>
+      </c>
+      <c r="BV2">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="BW2">
+        <v>0.84596000000000005</v>
+      </c>
+      <c r="BX2">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="BZ2">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.83648</v>
+      </c>
+      <c r="CB2">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.87565999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.85855999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.85741999999999996</v>
+      </c>
+      <c r="CF2">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="CH2">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="CI2">
+        <v>0.86746000000000001</v>
+      </c>
+      <c r="CJ2">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="CK2">
+        <v>0.85387999999999997</v>
+      </c>
+      <c r="CL2">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="CM2">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="CN2">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="CO2">
+        <v>0.84443999999999997</v>
+      </c>
+      <c r="CP2">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="CQ2">
+        <v>0.86012</v>
+      </c>
+      <c r="CR2">
+        <v>0.83331999999999995</v>
+      </c>
+      <c r="CS2">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="CT2">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="CU2">
+        <v>0.85152000000000005</v>
+      </c>
+      <c r="CV2">
+        <v>0.88338000000000005</v>
+      </c>
+      <c r="CW2">
+        <v>0.85611719999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="B3">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.85002</v>
+      </c>
+      <c r="D3">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.84197999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="I3">
+        <v>0.83545999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.87158000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.87307999999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.84148000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.84985999999999995</v>
+      </c>
+      <c r="O3">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.82967999999999997</v>
+      </c>
+      <c r="S3">
+        <v>0.84704000000000002</v>
+      </c>
+      <c r="T3">
+        <v>0.86334</v>
+      </c>
+      <c r="U3">
+        <v>0.82704</v>
+      </c>
+      <c r="V3">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="W3">
+        <v>0.86736000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.86321999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.84963999999999995</v>
+      </c>
+      <c r="AC3">
+        <v>0.87087999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.87931999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>0.84143999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.87043999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.85407999999999995</v>
+      </c>
+      <c r="AI3">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="AJ3">
+        <v>0.82887999999999995</v>
+      </c>
+      <c r="AK3">
+        <v>0.85728000000000004</v>
+      </c>
+      <c r="AL3">
+        <v>0.83938000000000001</v>
+      </c>
+      <c r="AM3">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="AP3">
+        <v>0.87058000000000002</v>
+      </c>
+      <c r="AQ3">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="AR3">
+        <v>0.85207999999999995</v>
+      </c>
+      <c r="AS3">
+        <v>0.84041999999999994</v>
+      </c>
+      <c r="AT3">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AU3">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="AV3">
+        <v>0.86594000000000004</v>
+      </c>
+      <c r="AW3">
+        <v>0.83775999999999995</v>
+      </c>
+      <c r="AX3">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AY3">
+        <v>0.86073999999999995</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87278</v>
+      </c>
+      <c r="BA3">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="BB3">
+        <v>0.85375999999999996</v>
+      </c>
+      <c r="BC3">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="BD3">
+        <v>0.85246</v>
+      </c>
+      <c r="BE3">
+        <v>0.83701999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.84128000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="BH3">
+        <v>0.86231999999999998</v>
+      </c>
+      <c r="BI3">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84511999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="BL3">
+        <v>0.84843999999999997</v>
+      </c>
+      <c r="BM3">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="BN3">
+        <v>0.84921999999999997</v>
+      </c>
+      <c r="BO3">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="BP3">
+        <v>0.86997999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.85177999999999998</v>
+      </c>
+      <c r="BR3">
+        <v>0.87514000000000003</v>
+      </c>
+      <c r="BS3">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="BU3">
+        <v>0.84562000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.85267999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.86231999999999998</v>
+      </c>
+      <c r="BX3">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BY3">
+        <v>0.83626</v>
+      </c>
+      <c r="BZ3">
+        <v>0.88158000000000003</v>
+      </c>
+      <c r="CA3">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>0.85753999999999997</v>
+      </c>
+      <c r="CC3">
+        <v>0.85616000000000003</v>
+      </c>
+      <c r="CD3">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="CE3">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="CF3">
+        <v>0.86941999999999997</v>
+      </c>
+      <c r="CG3">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="CH3">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="CJ3">
+        <v>0.85251999999999994</v>
+      </c>
+      <c r="CK3">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.83042000000000005</v>
+      </c>
+      <c r="CM3">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="CN3">
+        <v>0.86728000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.85721999999999998</v>
+      </c>
+      <c r="CP3">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="CQ3">
+        <v>0.84472000000000003</v>
+      </c>
+      <c r="CR3">
+        <v>0.87614000000000003</v>
+      </c>
+      <c r="CS3">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="CT3">
+        <v>0.85384000000000004</v>
+      </c>
+      <c r="CU3">
+        <v>0.83184000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="CW3">
+        <v>0.85608479999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.88224000000000002</v>
+      </c>
+      <c r="B4">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.86338000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.85484000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.84555999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.83733999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.84275999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.85002</v>
+      </c>
+      <c r="K4">
+        <v>0.85743999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.85246</v>
+      </c>
+      <c r="M4">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>0.87497999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.86556</v>
+      </c>
+      <c r="S4">
+        <v>0.87368000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.83613999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="W4">
+        <v>0.86892000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.86934</v>
+      </c>
+      <c r="Y4">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="Z4">
+        <v>0.86004000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>0.86826000000000003</v>
+      </c>
+      <c r="AB4">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>0.85085999999999995</v>
+      </c>
+      <c r="AD4">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="AE4">
+        <v>0.85468</v>
+      </c>
+      <c r="AF4">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="AG4">
+        <v>0.88348000000000004</v>
+      </c>
+      <c r="AH4">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="AI4">
+        <v>0.86395999999999995</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85063999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.86982000000000004</v>
+      </c>
+      <c r="AL4">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="AM4">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="AN4">
+        <v>0.84802</v>
+      </c>
+      <c r="AO4">
+        <v>0.83465999999999996</v>
+      </c>
+      <c r="AP4">
+        <v>0.83652000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="AR4">
+        <v>0.88522000000000001</v>
+      </c>
+      <c r="AS4">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="AT4">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="AU4">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="AW4">
+        <v>0.83621999999999996</v>
+      </c>
+      <c r="AX4">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="AY4">
+        <v>0.83733999999999997</v>
+      </c>
+      <c r="AZ4">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="BA4">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="BC4">
+        <v>0.87128000000000005</v>
+      </c>
+      <c r="BD4">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.86168</v>
+      </c>
+      <c r="BF4">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="BG4">
+        <v>0.87331999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>0.86863999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="BJ4">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="BK4">
+        <v>0.88832</v>
+      </c>
+      <c r="BL4">
+        <v>0.85694000000000004</v>
+      </c>
+      <c r="BM4">
+        <v>0.84611999999999998</v>
+      </c>
+      <c r="BN4">
+        <v>0.81403999999999999</v>
+      </c>
+      <c r="BO4">
+        <v>0.87151999999999996</v>
+      </c>
+      <c r="BP4">
+        <v>0.86995999999999996</v>
+      </c>
+      <c r="BQ4">
+        <v>0.85558000000000001</v>
+      </c>
+      <c r="BR4">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="BS4">
+        <v>0.83962000000000003</v>
+      </c>
+      <c r="BT4">
+        <v>0.83577999999999997</v>
+      </c>
+      <c r="BU4">
+        <v>0.88022</v>
+      </c>
+      <c r="BV4">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="BW4">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="BX4">
+        <v>0.84548000000000001</v>
+      </c>
+      <c r="BY4">
+        <v>0.85041999999999995</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88095999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="CB4">
+        <v>0.84441999999999995</v>
+      </c>
+      <c r="CC4">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="CD4">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="CE4">
+        <v>0.88527999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="CG4">
+        <v>0.84263999999999994</v>
+      </c>
+      <c r="CH4">
+        <v>0.86631999999999998</v>
+      </c>
+      <c r="CI4">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="CJ4">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="CK4">
+        <v>0.86055999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.87146000000000001</v>
+      </c>
+      <c r="CM4">
+        <v>0.87194000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="CO4">
+        <v>0.87741999999999998</v>
+      </c>
+      <c r="CP4">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="CR4">
+        <v>0.86783999999999994</v>
+      </c>
+      <c r="CS4">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="CT4">
+        <v>0.84018000000000004</v>
+      </c>
+      <c r="CU4">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="CV4">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="CW4">
+        <v>0.85680719999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="B5">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.85702</v>
+      </c>
+      <c r="D5">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.83226</v>
+      </c>
+      <c r="F5">
+        <v>0.85</v>
+      </c>
+      <c r="G5">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.88948000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.83253999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.83343999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.86053999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.83767999999999998</v>
+      </c>
+      <c r="P5">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.87917999999999996</v>
+      </c>
+      <c r="U5">
+        <v>0.84606000000000003</v>
+      </c>
+      <c r="V5">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="X5">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>0.86187999999999998</v>
+      </c>
+      <c r="Z5">
+        <v>0.86734</v>
+      </c>
+      <c r="AA5">
+        <v>0.85607999999999995</v>
+      </c>
+      <c r="AB5">
+        <v>0.8528</v>
+      </c>
+      <c r="AC5">
+        <v>0.87487999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.85606000000000004</v>
+      </c>
+      <c r="AF5">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.85468</v>
+      </c>
+      <c r="AH5">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="AI5">
+        <v>0.85341999999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="AL5">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="AM5">
+        <v>0.86504000000000003</v>
+      </c>
+      <c r="AN5">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="AO5">
+        <v>0.86802000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.85431999999999997</v>
+      </c>
+      <c r="AQ5">
+        <v>0.86985999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="AS5">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="AT5">
+        <v>0.83887999999999996</v>
+      </c>
+      <c r="AU5">
+        <v>0.87794000000000005</v>
+      </c>
+      <c r="AV5">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AW5">
+        <v>0.86172000000000004</v>
+      </c>
+      <c r="AX5">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="AY5">
+        <v>0.87704000000000004</v>
+      </c>
+      <c r="AZ5">
+        <v>0.85953999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="BB5">
+        <v>0.86739999999999995</v>
+      </c>
+      <c r="BC5">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="BD5">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="BE5">
+        <v>0.83677999999999997</v>
+      </c>
+      <c r="BF5">
+        <v>0.87405999999999995</v>
+      </c>
+      <c r="BG5">
+        <v>0.85026000000000002</v>
+      </c>
+      <c r="BH5">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="BI5">
+        <v>0.85475999999999996</v>
+      </c>
+      <c r="BJ5">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="BK5">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="BL5">
+        <v>0.8488</v>
+      </c>
+      <c r="BM5">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>0.82594000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>0.85728000000000004</v>
+      </c>
+      <c r="BP5">
+        <v>0.86873999999999996</v>
+      </c>
+      <c r="BQ5">
+        <v>0.86221999999999999</v>
+      </c>
+      <c r="BR5">
+        <v>0.83548</v>
+      </c>
+      <c r="BS5">
+        <v>0.84397999999999995</v>
+      </c>
+      <c r="BT5">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="BU5">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="BV5">
+        <v>0.84253999999999996</v>
+      </c>
+      <c r="BW5">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="BX5">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="CA5">
+        <v>0.83121999999999996</v>
+      </c>
+      <c r="CB5">
+        <v>0.86043999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="CE5">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="CF5">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="CG5">
+        <v>0.84248000000000001</v>
+      </c>
+      <c r="CH5">
+        <v>0.86133999999999999</v>
+      </c>
+      <c r="CI5">
+        <v>0.84096000000000004</v>
+      </c>
+      <c r="CJ5">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="CK5">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="CL5">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="CM5">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="CN5">
+        <v>0.84762000000000004</v>
+      </c>
+      <c r="CO5">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="CP5">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84648000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.87431999999999999</v>
+      </c>
+      <c r="CS5">
+        <v>0.83908000000000005</v>
+      </c>
+      <c r="CT5">
+        <v>0.873</v>
+      </c>
+      <c r="CU5">
+        <v>0.85863999999999996</v>
+      </c>
+      <c r="CV5">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="CW5">
+        <v>0.85550080000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="B6">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.87205999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.84721999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.87068000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="G6">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.84775999999999996</v>
+      </c>
+      <c r="K6">
+        <v>0.86434</v>
+      </c>
+      <c r="L6">
+        <v>0.85258</v>
+      </c>
+      <c r="M6">
+        <v>0.84308000000000005</v>
+      </c>
+      <c r="N6">
+        <v>0.86943999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.86338000000000004</v>
+      </c>
+      <c r="Q6">
+        <v>0.8589</v>
+      </c>
+      <c r="R6">
+        <v>0.86036000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.86934</v>
+      </c>
+      <c r="T6">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="U6">
+        <v>0.87165999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.85668</v>
+      </c>
+      <c r="W6">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.85548000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.87212000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.8377</v>
+      </c>
+      <c r="AC6">
+        <v>0.84743999999999997</v>
+      </c>
+      <c r="AD6">
+        <v>0.86556</v>
+      </c>
+      <c r="AE6">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>0.85802</v>
+      </c>
+      <c r="AG6">
+        <v>0.85048000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.84545999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.82747999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.84782000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="AN6">
+        <v>0.84408000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.85563999999999996</v>
+      </c>
+      <c r="AP6">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84363999999999995</v>
+      </c>
+      <c r="AR6">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="AS6">
+        <v>0.83865999999999996</v>
+      </c>
+      <c r="AT6">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="AU6">
+        <v>0.85182000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="AW6">
+        <v>0.85621999999999998</v>
+      </c>
+      <c r="AX6">
+        <v>0.86104000000000003</v>
+      </c>
+      <c r="AY6">
+        <v>0.8528</v>
+      </c>
+      <c r="AZ6">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="BA6">
+        <v>0.86621999999999999</v>
+      </c>
+      <c r="BB6">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="BC6">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="BD6">
+        <v>0.86124000000000001</v>
+      </c>
+      <c r="BE6">
+        <v>0.83874000000000004</v>
+      </c>
+      <c r="BF6">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.86082000000000003</v>
+      </c>
+      <c r="BH6">
+        <v>0.86534</v>
+      </c>
+      <c r="BI6">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="BK6">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="BL6">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="BM6">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="BO6">
+        <v>0.8468</v>
+      </c>
+      <c r="BP6">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="BR6">
+        <v>0.85807999999999995</v>
+      </c>
+      <c r="BS6">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>0.86882000000000004</v>
+      </c>
+      <c r="BU6">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="BV6">
+        <v>0.85438000000000003</v>
+      </c>
+      <c r="BW6">
+        <v>0.86373999999999995</v>
+      </c>
+      <c r="BX6">
+        <v>0.85421999999999998</v>
+      </c>
+      <c r="BY6">
+        <v>0.85406000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="CA6">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="CB6">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="CC6">
+        <v>0.86934</v>
+      </c>
+      <c r="CD6">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="CE6">
+        <v>0.86387999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.83074000000000003</v>
+      </c>
+      <c r="CG6">
+        <v>0.85624</v>
+      </c>
+      <c r="CH6">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="CI6">
+        <v>0.87851999999999997</v>
+      </c>
+      <c r="CJ6">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.86053999999999997</v>
+      </c>
+      <c r="CL6">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="CM6">
+        <v>0.87687999999999999</v>
+      </c>
+      <c r="CN6">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="CO6">
+        <v>0.85848000000000002</v>
+      </c>
+      <c r="CP6">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="CQ6">
+        <v>0.88002000000000002</v>
+      </c>
+      <c r="CR6">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>0.82598000000000005</v>
+      </c>
+      <c r="CT6">
+        <v>0.87658000000000003</v>
+      </c>
+      <c r="CU6">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="CV6">
+        <v>0.8538</v>
+      </c>
+      <c r="CW6">
+        <v>0.85831020000000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.84797999999999996</v>
+      </c>
+      <c r="B7">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="E7">
         <v>0.86028000000000004</v>
       </c>
-      <c r="B1">
-        <v>0.84275999999999995</v>
-      </c>
-      <c r="C1">
-        <v>0.85152000000000005</v>
+      <c r="F7">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.88026000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.85702</v>
+      </c>
+      <c r="K7">
+        <v>0.85133999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.87072000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.85485999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.85731999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.83626</v>
+      </c>
+      <c r="V7">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.872</v>
+      </c>
+      <c r="X7">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="AA7">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.86885999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>0.86406000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.8417</v>
+      </c>
+      <c r="AH7">
+        <v>0.85963999999999996</v>
+      </c>
+      <c r="AI7">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="AJ7">
+        <v>0.86975999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.86495999999999995</v>
+      </c>
+      <c r="AL7">
+        <v>0.85546</v>
+      </c>
+      <c r="AM7">
+        <v>0.86128000000000005</v>
+      </c>
+      <c r="AN7">
+        <v>0.85262000000000004</v>
+      </c>
+      <c r="AO7">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="AP7">
+        <v>0.86416000000000004</v>
+      </c>
+      <c r="AQ7">
+        <v>0.85624</v>
+      </c>
+      <c r="AR7">
+        <v>0.84682000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.87372000000000005</v>
+      </c>
+      <c r="AU7">
+        <v>0.86392000000000002</v>
+      </c>
+      <c r="AV7">
+        <v>0.85307999999999995</v>
+      </c>
+      <c r="AW7">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="AX7">
+        <v>0.87672000000000005</v>
+      </c>
+      <c r="AY7">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AZ7">
+        <v>0.86773999999999996</v>
+      </c>
+      <c r="BA7">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="BB7">
+        <v>0.87002000000000002</v>
+      </c>
+      <c r="BC7">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="BE7">
+        <v>0.84204000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.85333999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="BI7">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="BK7">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="BL7">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="BM7">
+        <v>0.85484000000000004</v>
+      </c>
+      <c r="BN7">
+        <v>0.86407999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.84611999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.84141999999999995</v>
+      </c>
+      <c r="BQ7">
+        <v>0.84545999999999999</v>
+      </c>
+      <c r="BR7">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="BS7">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="BT7">
+        <v>0.84365999999999997</v>
+      </c>
+      <c r="BU7">
+        <v>0.82942000000000005</v>
+      </c>
+      <c r="BV7">
+        <v>0.86295999999999995</v>
+      </c>
+      <c r="BW7">
+        <v>0.86978</v>
+      </c>
+      <c r="BX7">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="BY7">
+        <v>0.85316000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.85138000000000003</v>
+      </c>
+      <c r="CA7">
+        <v>0.84194000000000002</v>
+      </c>
+      <c r="CB7">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="CC7">
+        <v>0.83157999999999999</v>
+      </c>
+      <c r="CD7">
+        <v>0.86656</v>
+      </c>
+      <c r="CE7">
+        <v>0.87292000000000003</v>
+      </c>
+      <c r="CF7">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="CG7">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="CH7">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="CI7">
+        <v>0.87083999999999995</v>
+      </c>
+      <c r="CJ7">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="CK7">
+        <v>0.86484000000000005</v>
+      </c>
+      <c r="CL7">
+        <v>0.87136000000000002</v>
+      </c>
+      <c r="CM7">
+        <v>0.85733999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="CO7">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.87307999999999997</v>
+      </c>
+      <c r="CQ7">
+        <v>0.83394000000000001</v>
+      </c>
+      <c r="CR7">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="CS7">
+        <v>0.85963999999999996</v>
+      </c>
+      <c r="CT7">
+        <v>0.85962000000000005</v>
+      </c>
+      <c r="CU7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="CV7">
+        <v>0.84448000000000001</v>
+      </c>
+      <c r="CW7">
+        <v>0.8567064000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87204000000000004</v>
-      </c>
-      <c r="B2">
-        <v>0.86494000000000004</v>
-      </c>
-      <c r="C2">
-        <v>0.86848999999999998</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.86543999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.87363999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.86426000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.86146</v>
+      </c>
+      <c r="L8">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.84728000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.85594000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.84567999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="S8">
+        <v>0.82608000000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.85004000000000002</v>
+      </c>
+      <c r="U8">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.85914000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.86826000000000003</v>
+      </c>
+      <c r="Z8">
+        <v>0.8427</v>
+      </c>
+      <c r="AA8">
+        <v>0.84684000000000004</v>
+      </c>
+      <c r="AB8">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="AC8">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="AD8">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.87282000000000004</v>
+      </c>
+      <c r="AF8">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="AG8">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AH8">
+        <v>0.84326000000000001</v>
+      </c>
+      <c r="AI8">
+        <v>0.8569</v>
+      </c>
+      <c r="AJ8">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="AK8">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="AL8">
+        <v>0.84963999999999995</v>
+      </c>
+      <c r="AM8">
+        <v>0.83291999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="AO8">
+        <v>0.86907999999999996</v>
+      </c>
+      <c r="AP8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83584000000000003</v>
+      </c>
+      <c r="AR8">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="AS8">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="AT8">
+        <v>0.86707999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="AV8">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="AW8">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="AY8">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="AZ8">
+        <v>0.83198000000000005</v>
+      </c>
+      <c r="BA8">
+        <v>0.85787999999999998</v>
+      </c>
+      <c r="BB8">
+        <v>0.86556</v>
+      </c>
+      <c r="BC8">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="BD8">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.82687999999999995</v>
+      </c>
+      <c r="BF8">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="BG8">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="BH8">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="BI8">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="BJ8">
+        <v>0.87061999999999995</v>
+      </c>
+      <c r="BK8">
+        <v>0.87561999999999995</v>
+      </c>
+      <c r="BL8">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="BM8">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.83855999999999997</v>
+      </c>
+      <c r="BO8">
+        <v>0.84211999999999998</v>
+      </c>
+      <c r="BP8">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.85953999999999997</v>
+      </c>
+      <c r="BR8">
+        <v>0.85862000000000005</v>
+      </c>
+      <c r="BS8">
+        <v>0.84877999999999998</v>
+      </c>
+      <c r="BT8">
+        <v>0.85258</v>
+      </c>
+      <c r="BU8">
+        <v>0.84392</v>
+      </c>
+      <c r="BV8">
+        <v>0.85875999999999997</v>
+      </c>
+      <c r="BW8">
+        <v>0.86604000000000003</v>
+      </c>
+      <c r="BX8">
+        <v>0.85672000000000004</v>
+      </c>
+      <c r="BY8">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="BZ8">
+        <v>0.86843999999999999</v>
+      </c>
+      <c r="CA8">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.85065999999999997</v>
+      </c>
+      <c r="CC8">
+        <v>0.86843999999999999</v>
+      </c>
+      <c r="CD8">
+        <v>0.86351999999999995</v>
+      </c>
+      <c r="CE8">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="CF8">
+        <v>0.85833999999999999</v>
+      </c>
+      <c r="CG8">
+        <v>0.86131999999999997</v>
+      </c>
+      <c r="CH8">
+        <v>0.85346</v>
+      </c>
+      <c r="CI8">
+        <v>0.82096000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.83657999999999999</v>
+      </c>
+      <c r="CL8">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="CM8">
+        <v>0.87617999999999996</v>
+      </c>
+      <c r="CN8">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="CO8">
+        <v>0.87234</v>
+      </c>
+      <c r="CP8">
+        <v>0.87738000000000005</v>
+      </c>
+      <c r="CQ8">
+        <v>0.84977999999999998</v>
+      </c>
+      <c r="CR8">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="CS8">
+        <v>0.85194000000000003</v>
+      </c>
+      <c r="CT8">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="CU8">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="CV8">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="CW8">
+        <v>0.85463800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.83516000000000001</v>
-      </c>
-      <c r="B3">
-        <v>0.86251999999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.84884000000000004</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.87505999999999995</v>
+      </c>
+      <c r="B9">
+        <v>0.85821999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.86216000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.84518000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.85751999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.83597999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.87146000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.84111999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.87083999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.86177999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.83098000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.86</v>
+      </c>
+      <c r="P9">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="T9">
+        <v>0.87124000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.86024</v>
+      </c>
+      <c r="V9">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.87138000000000004</v>
+      </c>
+      <c r="X9">
+        <v>0.85475999999999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.86646000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.86434</v>
+      </c>
+      <c r="AA9">
+        <v>0.87024000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.88744000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.84482000000000002</v>
+      </c>
+      <c r="AF9">
+        <v>0.86502000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.86706000000000005</v>
+      </c>
+      <c r="AH9">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.87</v>
+      </c>
+      <c r="AJ9">
+        <v>0.87553999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.86265999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.85963999999999996</v>
+      </c>
+      <c r="AM9">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="AO9">
+        <v>0.86656</v>
+      </c>
+      <c r="AP9">
+        <v>0.84687999999999997</v>
+      </c>
+      <c r="AQ9">
+        <v>0.86363999999999996</v>
+      </c>
+      <c r="AR9">
+        <v>0.85768</v>
+      </c>
+      <c r="AS9">
+        <v>0.87117999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="AU9">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AV9">
+        <v>0.86614000000000002</v>
+      </c>
+      <c r="AW9">
+        <v>0.84592000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.84892000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.85731999999999997</v>
+      </c>
+      <c r="AZ9">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="BA9">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="BB9">
+        <v>0.86763999999999997</v>
+      </c>
+      <c r="BC9">
+        <v>0.86858000000000002</v>
+      </c>
+      <c r="BD9">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="BF9">
+        <v>0.83886000000000005</v>
+      </c>
+      <c r="BG9">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="BH9">
+        <v>0.86838000000000004</v>
+      </c>
+      <c r="BI9">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="BJ9">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.87172000000000005</v>
+      </c>
+      <c r="BL9">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="BM9">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="BN9">
+        <v>0.86082000000000003</v>
+      </c>
+      <c r="BO9">
+        <v>0.85804000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.8599</v>
+      </c>
+      <c r="BQ9">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="BR9">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="BS9">
+        <v>0.85351999999999995</v>
+      </c>
+      <c r="BT9">
+        <v>0.86328000000000005</v>
+      </c>
+      <c r="BU9">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="BV9">
+        <v>0.87136000000000002</v>
+      </c>
+      <c r="BW9">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="BX9">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="BY9">
+        <v>0.84638000000000002</v>
+      </c>
+      <c r="BZ9">
+        <v>0.84443999999999997</v>
+      </c>
+      <c r="CA9">
+        <v>0.86063999999999996</v>
+      </c>
+      <c r="CB9">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="CD9">
+        <v>0.82418000000000002</v>
+      </c>
+      <c r="CE9">
+        <v>0.88148000000000004</v>
+      </c>
+      <c r="CF9">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="CG9">
+        <v>0.84497999999999995</v>
+      </c>
+      <c r="CH9">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="CI9">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="CJ9">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="CK9">
+        <v>0.85324</v>
+      </c>
+      <c r="CL9">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="CM9">
+        <v>0.84911999999999999</v>
+      </c>
+      <c r="CN9">
+        <v>0.87638000000000005</v>
+      </c>
+      <c r="CO9">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="CP9">
+        <v>0.85111999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="CR9">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="CS9">
+        <v>0.84736</v>
+      </c>
+      <c r="CT9">
+        <v>0.87441999999999998</v>
+      </c>
+      <c r="CU9">
+        <v>0.86924000000000001</v>
+      </c>
+      <c r="CV9">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="CW9">
+        <v>0.85829799999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.83775999999999995</v>
-      </c>
-      <c r="B4">
-        <v>0.86729999999999996</v>
-      </c>
-      <c r="C4">
-        <v>0.85253000000000001</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.85843999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.86526000000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.8639</v>
+      </c>
+      <c r="M10">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.84818000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="P10">
+        <v>0.85306000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="R10">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.85621999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.83335999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.87365999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.85263999999999995</v>
+      </c>
+      <c r="AC10">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AD10">
+        <v>0.87534000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>0.87504000000000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.85274000000000005</v>
+      </c>
+      <c r="AG10">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="AH10">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AI10">
+        <v>0.87665999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.85614000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="AN10">
+        <v>0.8528</v>
+      </c>
+      <c r="AO10">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="AP10">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="AR10">
+        <v>0.86482000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.83282</v>
+      </c>
+      <c r="AT10">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="AU10">
+        <v>0.87378</v>
+      </c>
+      <c r="AV10">
+        <v>0.8619</v>
+      </c>
+      <c r="AW10">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="AX10">
+        <v>0.84833999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.84128000000000003</v>
+      </c>
+      <c r="AZ10">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="BA10">
+        <v>0.84318000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.86861999999999995</v>
+      </c>
+      <c r="BC10">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="BD10">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="BE10">
+        <v>0.86194000000000004</v>
+      </c>
+      <c r="BF10">
+        <v>0.83143999999999996</v>
+      </c>
+      <c r="BG10">
+        <v>0.87287999999999999</v>
+      </c>
+      <c r="BH10">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="BI10">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="BJ10">
+        <v>0.87102000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>0.86568000000000001</v>
+      </c>
+      <c r="BL10">
+        <v>0.83242000000000005</v>
+      </c>
+      <c r="BM10">
+        <v>0.84804000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.85597999999999996</v>
+      </c>
+      <c r="BO10">
+        <v>0.83384000000000003</v>
+      </c>
+      <c r="BP10">
+        <v>0.85124</v>
+      </c>
+      <c r="BQ10">
+        <v>0.86612</v>
+      </c>
+      <c r="BR10">
+        <v>0.83904000000000001</v>
+      </c>
+      <c r="BS10">
+        <v>0.87373999999999996</v>
+      </c>
+      <c r="BT10">
+        <v>0.86277999999999999</v>
+      </c>
+      <c r="BU10">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="BV10">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="BW10">
+        <v>0.87265999999999999</v>
+      </c>
+      <c r="BX10">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="BY10">
+        <v>0.86806000000000005</v>
+      </c>
+      <c r="BZ10">
+        <v>0.87016000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="CB10">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="CD10">
+        <v>0.8518</v>
+      </c>
+      <c r="CE10">
+        <v>0.86112</v>
+      </c>
+      <c r="CF10">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="CH10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="CI10">
+        <v>0.84501999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="CK10">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.87278</v>
+      </c>
+      <c r="CM10">
+        <v>0.88214000000000004</v>
+      </c>
+      <c r="CN10">
+        <v>0.84641999999999995</v>
+      </c>
+      <c r="CO10">
+        <v>0.86404000000000003</v>
+      </c>
+      <c r="CP10">
+        <v>0.84448000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="CR10">
+        <v>0.85824</v>
+      </c>
+      <c r="CS10">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="CT10">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="CU10">
+        <v>0.88131999999999999</v>
+      </c>
+      <c r="CV10">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="CW10">
+        <v>0.85785759999999966</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.85838000000000003</v>
-      </c>
-      <c r="B5">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="C5">
-        <v>0.86084000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.84492</v>
+      </c>
+      <c r="B11">
+        <v>0.87436000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.87322</v>
+      </c>
+      <c r="D11">
+        <v>0.87553999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.86897999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.87478</v>
+      </c>
+      <c r="H11">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.85992000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.85787999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.84326000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.83826000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.85141</v>
+      </c>
+      <c r="R11">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.87007999999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.84406000000000003</v>
+      </c>
+      <c r="U11">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="V11">
+        <v>0.83355999999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.84765999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.85182000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="Z11">
+        <v>0.86826000000000003</v>
+      </c>
+      <c r="AA11">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.84985999999999995</v>
+      </c>
+      <c r="AC11">
+        <v>0.84875999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.86073999999999995</v>
+      </c>
+      <c r="AE11">
+        <v>0.86365999999999998</v>
+      </c>
+      <c r="AF11">
+        <v>0.84114</v>
+      </c>
+      <c r="AG11">
+        <v>0.85584000000000005</v>
+      </c>
+      <c r="AH11">
+        <v>0.85702</v>
+      </c>
+      <c r="AI11">
+        <v>0.85411999999999999</v>
+      </c>
+      <c r="AJ11">
+        <v>0.85355000000000003</v>
+      </c>
+      <c r="AK11">
+        <v>0.85824</v>
+      </c>
+      <c r="AL11">
+        <v>0.86033999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.85062000000000004</v>
+      </c>
+      <c r="AN11">
+        <v>0.83284000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.84411999999999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.84577999999999998</v>
+      </c>
+      <c r="AQ11">
+        <v>0.84616000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="AS11">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="AU11">
+        <v>0.88912000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.86395999999999995</v>
+      </c>
+      <c r="AW11">
+        <v>0.86824000000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>0.83394000000000001</v>
+      </c>
+      <c r="AZ11">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="BA11">
+        <v>0.83794000000000002</v>
+      </c>
+      <c r="BB11">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="BC11">
+        <v>0.84014</v>
+      </c>
+      <c r="BD11">
+        <v>0.8518</v>
+      </c>
+      <c r="BE11">
+        <v>0.85963999999999996</v>
+      </c>
+      <c r="BF11">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="BH11">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="BI11">
+        <v>0.86685999999999996</v>
+      </c>
+      <c r="BJ11">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="BK11">
+        <v>0.85324</v>
+      </c>
+      <c r="BL11">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="BM11">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="BN11">
+        <v>0.85087999999999997</v>
+      </c>
+      <c r="BO11">
+        <v>0.87526000000000004</v>
+      </c>
+      <c r="BP11">
+        <v>0.84608000000000005</v>
+      </c>
+      <c r="BQ11">
+        <v>0.86572000000000005</v>
+      </c>
+      <c r="BR11">
+        <v>0.86384000000000005</v>
+      </c>
+      <c r="BS11">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="BU11">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="BV11">
+        <v>0.84482000000000002</v>
+      </c>
+      <c r="BW11">
+        <v>0.87283999999999995</v>
+      </c>
+      <c r="BX11">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="BY11">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="BZ11">
+        <v>0.86107999999999996</v>
+      </c>
+      <c r="CA11">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="CB11">
+        <v>0.86928000000000005</v>
+      </c>
+      <c r="CC11">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="CD11">
+        <v>0.85875999999999997</v>
+      </c>
+      <c r="CE11">
         <v>0.85772000000000004</v>
       </c>
-      <c r="B6">
-        <v>0.85936000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.85854000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="B7">
-        <v>0.86368</v>
-      </c>
-      <c r="C7">
-        <v>0.86309000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.87207999999999997</v>
-      </c>
-      <c r="B8">
-        <v>0.85141999999999995</v>
-      </c>
-      <c r="C8">
-        <v>0.86175000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.87007999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.85207999999999995</v>
-      </c>
-      <c r="C9">
-        <v>0.86107999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.83130000000000004</v>
-      </c>
-      <c r="B10">
-        <v>0.85658000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.84394000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.86097999999999997</v>
-      </c>
-      <c r="B11">
-        <v>0.86448000000000003</v>
-      </c>
-      <c r="C11">
-        <v>0.86273</v>
+      <c r="CF11">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="CG11">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="CH11">
+        <v>0.85802</v>
+      </c>
+      <c r="CI11">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="CJ11">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="CK11">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="CL11">
+        <v>0.86204000000000003</v>
+      </c>
+      <c r="CM11">
+        <v>0.86285999999999996</v>
+      </c>
+      <c r="CN11">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="CO11">
+        <v>0.87082000000000004</v>
+      </c>
+      <c r="CP11">
+        <v>0.85504000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="CR11">
+        <v>0.89914000000000005</v>
+      </c>
+      <c r="CS11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="CT11">
+        <v>0.89181999999999995</v>
+      </c>
+      <c r="CU11">
+        <v>0.85084000000000004</v>
+      </c>
+      <c r="CV11">
+        <v>0.88027999999999995</v>
+      </c>
+      <c r="CW11">
+        <v>0.85885899999999959</v>
       </c>
     </row>
   </sheetData>
